--- a/published-data/fonds-solidarite/fds-2022-06-10/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-10/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -2091,13 +2091,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>126944</v>
+        <v>126945</v>
       </c>
       <c r="D41" t="n">
         <v>24257</v>
       </c>
       <c r="E41" t="n">
-        <v>662685720</v>
+        <v>662707757</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2378,13 +2378,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>150635</v>
+        <v>150636</v>
       </c>
       <c r="D48" t="n">
         <v>33533</v>
       </c>
       <c r="E48" t="n">
-        <v>275740233</v>
+        <v>275744616</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -3157,13 +3157,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>27103</v>
+        <v>27105</v>
       </c>
       <c r="D67" t="n">
         <v>4262</v>
       </c>
       <c r="E67" t="n">
-        <v>168710610</v>
+        <v>168714702</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -3239,13 +3239,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>17890</v>
+        <v>17891</v>
       </c>
       <c r="D69" t="n">
         <v>2908</v>
       </c>
       <c r="E69" t="n">
-        <v>103828651</v>
+        <v>103836984</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -3362,13 +3362,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>331324</v>
+        <v>331325</v>
       </c>
       <c r="D72" t="n">
         <v>71642</v>
       </c>
       <c r="E72" t="n">
-        <v>635433930</v>
+        <v>635436311</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -3731,13 +3731,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>88355</v>
+        <v>88356</v>
       </c>
       <c r="D81" t="n">
         <v>16598</v>
       </c>
       <c r="E81" t="n">
-        <v>499671330</v>
+        <v>499673318</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -4674,13 +4674,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>319350</v>
+        <v>319351</v>
       </c>
       <c r="D104" t="n">
-        <v>67904</v>
+        <v>67905</v>
       </c>
       <c r="E104" t="n">
-        <v>561273070</v>
+        <v>561273145</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -5371,13 +5371,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1306315</v>
+        <v>1306327</v>
       </c>
       <c r="D121" t="n">
-        <v>220385</v>
+        <v>220386</v>
       </c>
       <c r="E121" t="n">
-        <v>2275232948</v>
+        <v>2275257402</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5699,13 +5699,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>633673</v>
+        <v>633686</v>
       </c>
       <c r="D129" t="n">
         <v>104969</v>
       </c>
       <c r="E129" t="n">
-        <v>3432957152</v>
+        <v>3433172989</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -5822,13 +5822,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>585945</v>
+        <v>585952</v>
       </c>
       <c r="D132" t="n">
         <v>90785</v>
       </c>
       <c r="E132" t="n">
-        <v>3470784451</v>
+        <v>3470848013</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -8036,13 +8036,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>236834</v>
+        <v>236835</v>
       </c>
       <c r="D186" t="n">
         <v>46319</v>
       </c>
       <c r="E186" t="n">
-        <v>1189980799</v>
+        <v>1189990205</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -8159,13 +8159,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>100470</v>
+        <v>100471</v>
       </c>
       <c r="D189" t="n">
         <v>18353</v>
       </c>
       <c r="E189" t="n">
-        <v>556426057</v>
+        <v>556436057</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -8774,13 +8774,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>265651</v>
+        <v>265654</v>
       </c>
       <c r="D204" t="n">
         <v>49763</v>
       </c>
       <c r="E204" t="n">
-        <v>1271477056</v>
+        <v>1271493760</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -10127,13 +10127,13 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>283321</v>
+        <v>283322</v>
       </c>
       <c r="D237" t="n">
         <v>49797</v>
       </c>
       <c r="E237" t="n">
-        <v>1438426190</v>
+        <v>1438427690</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -10250,13 +10250,13 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>205925</v>
+        <v>205926</v>
       </c>
       <c r="D240" t="n">
         <v>33984</v>
       </c>
       <c r="E240" t="n">
-        <v>1069623635</v>
+        <v>1069823635</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
